--- a/Collections/Евро/Austria/#EURO#Austria#Regular[2002-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Austria/#EURO#Austria#Regular[2002-present]#circulation_quality.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\Евро\Austria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Austria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -713,6 +713,15 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -840,15 +849,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -880,9 +880,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="18"/>
-    <tableColumn id="2" name="Link" dataDxfId="17" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="16"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1153,25 +1153,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD5"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="8" t="s">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
@@ -1574,7 +1574,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -1589,7 +1589,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1619,21 +1619,21 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD5"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="8" t="s">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
@@ -2036,7 +2036,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -2051,7 +2051,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2081,21 +2081,21 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD5"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="8" t="s">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
@@ -2498,7 +2498,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -2513,7 +2513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2543,21 +2543,21 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD5"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="8" t="s">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
@@ -2996,7 +2996,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -3011,7 +3011,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3041,21 +3041,21 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD5"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="8" t="s">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
@@ -3494,7 +3494,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -3509,7 +3509,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3542,18 +3542,18 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="8" t="s">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
@@ -3992,7 +3992,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -4007,7 +4007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4037,21 +4037,21 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD5"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
@@ -4070,7 +4070,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="8" t="s">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
@@ -4134,7 +4134,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
@@ -4491,7 +4491,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -4506,7 +4506,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4532,25 +4532,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="8" t="s">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
@@ -4633,7 +4633,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
@@ -5000,7 +5000,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5015,7 +5015,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F19">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5045,17 +5045,17 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>22</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
         <v>4</v>
       </c>

--- a/Collections/Евро/Austria/#EURO#Austria#Regular[2002-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Austria/#EURO#Austria#Regular[2002-present]#circulation_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -352,7 +352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="36">
   <si>
     <t>-</t>
   </si>
@@ -451,6 +451,15 @@
   </si>
   <si>
     <t>Photo of coins</t>
+  </si>
+  <si>
+    <t>eurocollection</t>
+  </si>
+  <si>
+    <t>High convenience single table of varieties with photos</t>
+  </si>
+  <si>
+    <t>High convenience set of tables table of actual coins with photos</t>
   </si>
 </sst>
 </file>
@@ -629,7 +638,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -704,6 +713,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -873,8 +885,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1153,7 +1165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5039,13 +5051,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5110,16 +5122,40 @@
         <v>32</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Collections/Евро/Austria/#EURO#Austria#Regular[2002-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Austria/#EURO#Austria#Regular[2002-present]#circulation_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -670,9 +670,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -683,9 +680,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -702,6 +696,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -714,8 +711,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1165,11 +1165,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1184,27 +1184,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="29" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1223,12 +1223,12 @@
       <c r="A3" s="12">
         <v>2002</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16">
+      <c r="B3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15">
         <v>378510000</v>
       </c>
       <c r="F3" s="1">
@@ -1244,12 +1244,12 @@
       <c r="A4" s="12">
         <v>2003</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16">
+      <c r="B4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15">
         <v>10950000</v>
       </c>
       <c r="F4" s="1">
@@ -1265,12 +1265,12 @@
       <c r="A5" s="12">
         <v>2004</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16">
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15">
         <v>115120000</v>
       </c>
       <c r="F5" s="1">
@@ -1285,12 +1285,12 @@
       <c r="A6" s="12">
         <v>2005</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16">
+      <c r="B6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15">
         <v>174820000</v>
       </c>
       <c r="F6" s="1">
@@ -1305,12 +1305,12 @@
       <c r="A7" s="12">
         <v>2006</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16">
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15">
         <v>48420000</v>
       </c>
       <c r="F7" s="1">
@@ -1325,12 +1325,12 @@
       <c r="A8" s="12">
         <v>2007</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16">
+      <c r="B8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15">
         <v>111995000</v>
       </c>
       <c r="F8" s="1">
@@ -1345,12 +1345,12 @@
       <c r="A9" s="12">
         <v>2008</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16">
+      <c r="B9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15">
         <v>50965000</v>
       </c>
       <c r="F9" s="1">
@@ -1365,12 +1365,12 @@
       <c r="A10" s="12">
         <v>2009</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16">
+      <c r="B10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15">
         <v>158991000</v>
       </c>
       <c r="F10" s="1">
@@ -1385,12 +1385,12 @@
       <c r="A11" s="12">
         <v>2010</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16">
+      <c r="B11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15">
         <v>168565000</v>
       </c>
       <c r="F11" s="1">
@@ -1405,12 +1405,12 @@
       <c r="A12" s="12">
         <v>2011</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16">
+      <c r="B12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15">
         <v>189665000</v>
       </c>
       <c r="F12" s="1">
@@ -1425,12 +1425,12 @@
       <c r="A13" s="12">
         <v>2012</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16">
+      <c r="B13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15">
         <v>169360000</v>
       </c>
       <c r="F13" s="1">
@@ -1445,12 +1445,12 @@
       <c r="A14" s="12">
         <v>2013</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16">
+      <c r="B14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15">
         <v>179260000</v>
       </c>
       <c r="F14" s="1">
@@ -1465,12 +1465,12 @@
       <c r="A15" s="12">
         <v>2014</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16">
+      <c r="B15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15">
         <v>185560000</v>
       </c>
       <c r="F15" s="1">
@@ -1485,12 +1485,12 @@
       <c r="A16" s="12">
         <v>2015</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16">
+      <c r="B16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15">
         <v>118060000</v>
       </c>
       <c r="F16" s="1">
@@ -1505,11 +1505,11 @@
       <c r="A17" s="12">
         <v>2016</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="B17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="9" t="s">
         <v>10</v>
       </c>
@@ -1525,12 +1525,12 @@
       <c r="A18" s="12">
         <v>2017</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16">
+      <c r="B18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15">
         <v>37760000</v>
       </c>
       <c r="F18" s="1">
@@ -1545,11 +1545,11 @@
       <c r="A19" s="12">
         <v>2018</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="B19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="9" t="s">
         <v>10</v>
       </c>
@@ -1565,12 +1565,12 @@
       <c r="A20" s="12">
         <v>2019</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
+      <c r="B20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1631,7 +1631,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1646,27 +1646,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1685,7 +1685,7 @@
       <c r="A3" s="12">
         <v>2002</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="7"/>
@@ -1706,7 +1706,7 @@
       <c r="A4" s="12">
         <v>2003</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="7"/>
@@ -1727,7 +1727,7 @@
       <c r="A5" s="12">
         <v>2004</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="7"/>
@@ -1747,7 +1747,7 @@
       <c r="A6" s="12">
         <v>2005</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="7"/>
@@ -1767,7 +1767,7 @@
       <c r="A7" s="12">
         <v>2006</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="7"/>
@@ -1787,7 +1787,7 @@
       <c r="A8" s="12">
         <v>2007</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="7"/>
@@ -1807,7 +1807,7 @@
       <c r="A9" s="12">
         <v>2008</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="7"/>
@@ -1827,7 +1827,7 @@
       <c r="A10" s="12">
         <v>2009</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="7"/>
@@ -1847,7 +1847,7 @@
       <c r="A11" s="12">
         <v>2010</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="7"/>
@@ -1867,7 +1867,7 @@
       <c r="A12" s="12">
         <v>2011</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="7"/>
@@ -1887,7 +1887,7 @@
       <c r="A13" s="12">
         <v>2012</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="7"/>
@@ -1907,7 +1907,7 @@
       <c r="A14" s="12">
         <v>2013</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="7"/>
@@ -1927,7 +1927,7 @@
       <c r="A15" s="12">
         <v>2014</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="7"/>
@@ -1947,7 +1947,7 @@
       <c r="A16" s="12">
         <v>2015</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="7"/>
@@ -1967,7 +1967,7 @@
       <c r="A17" s="12">
         <v>2016</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="7"/>
@@ -1987,7 +1987,7 @@
       <c r="A18" s="12">
         <v>2017</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="7"/>
@@ -2007,7 +2007,7 @@
       <c r="A19" s="12">
         <v>2018</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="7"/>
@@ -2027,7 +2027,7 @@
       <c r="A20" s="12">
         <v>2019</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="7"/>
@@ -2093,7 +2093,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2108,27 +2108,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="29" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -2147,7 +2147,7 @@
       <c r="A3" s="12">
         <v>2002</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="7"/>
@@ -2168,7 +2168,7 @@
       <c r="A4" s="12">
         <v>2003</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="7"/>
@@ -2189,7 +2189,7 @@
       <c r="A5" s="12">
         <v>2004</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="7"/>
@@ -2209,7 +2209,7 @@
       <c r="A6" s="12">
         <v>2005</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="7"/>
@@ -2229,7 +2229,7 @@
       <c r="A7" s="12">
         <v>2006</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="7"/>
@@ -2249,7 +2249,7 @@
       <c r="A8" s="12">
         <v>2007</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="7"/>
@@ -2269,7 +2269,7 @@
       <c r="A9" s="12">
         <v>2008</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="7"/>
@@ -2289,7 +2289,7 @@
       <c r="A10" s="12">
         <v>2009</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="7"/>
@@ -2309,7 +2309,7 @@
       <c r="A11" s="12">
         <v>2010</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="7"/>
@@ -2329,7 +2329,7 @@
       <c r="A12" s="12">
         <v>2011</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="7"/>
@@ -2349,7 +2349,7 @@
       <c r="A13" s="12">
         <v>2012</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="7"/>
@@ -2369,7 +2369,7 @@
       <c r="A14" s="12">
         <v>2013</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="7"/>
@@ -2389,7 +2389,7 @@
       <c r="A15" s="12">
         <v>2014</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="7"/>
@@ -2409,7 +2409,7 @@
       <c r="A16" s="12">
         <v>2015</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="7"/>
@@ -2429,7 +2429,7 @@
       <c r="A17" s="12">
         <v>2016</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="7"/>
@@ -2449,7 +2449,7 @@
       <c r="A18" s="12">
         <v>2017</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="7"/>
@@ -2469,7 +2469,7 @@
       <c r="A19" s="12">
         <v>2018</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="7"/>
@@ -2489,7 +2489,7 @@
       <c r="A20" s="12">
         <v>2019</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="7"/>
@@ -2555,7 +2555,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2570,27 +2570,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="29" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -3053,7 +3053,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L16" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3068,27 +3068,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="29" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>51050000</v>
       </c>
       <c r="F4" s="1">
@@ -3551,10 +3551,10 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD5"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
     <col min="2" max="2" width="24.81640625" style="5" customWidth="1"/>
@@ -3565,28 +3565,28 @@
     <col min="7" max="7" width="13.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="28" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2002</v>
       </c>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2003</v>
       </c>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2005</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2006</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2007</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2008</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2014</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
@@ -4049,7 +4049,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4064,27 +4064,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="28" t="s">
         <v>19</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -4103,14 +4103,14 @@
       <c r="A3" s="12">
         <v>2002</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15">
         <v>223610000</v>
       </c>
       <c r="F3" s="1">
@@ -4126,14 +4126,14 @@
       <c r="A4" s="12">
         <v>2003</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16">
+      <c r="D4" s="14"/>
+      <c r="E4" s="15">
         <v>300000</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -4143,21 +4143,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="16"/>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16">
+      <c r="D5" s="14"/>
+      <c r="E5" s="15">
         <v>2720000</v>
       </c>
       <c r="F5" s="1">
@@ -4172,14 +4172,14 @@
       <c r="A6" s="12">
         <v>2005</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16">
+      <c r="D6" s="14"/>
+      <c r="E6" s="15">
         <v>2720000</v>
       </c>
       <c r="F6" s="1">
@@ -4194,14 +4194,14 @@
       <c r="A7" s="12">
         <v>2006</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16">
+      <c r="D7" s="14"/>
+      <c r="E7" s="15">
         <v>7820000</v>
       </c>
       <c r="F7" s="1">
@@ -4216,14 +4216,14 @@
       <c r="A8" s="12">
         <v>2007</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16">
+      <c r="D8" s="14"/>
+      <c r="E8" s="15">
         <v>41195000</v>
       </c>
       <c r="F8" s="1">
@@ -4238,14 +4238,14 @@
       <c r="A9" s="12">
         <v>2008</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16">
+      <c r="C9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15">
         <v>65565000</v>
       </c>
       <c r="F9" s="1">
@@ -4260,14 +4260,14 @@
       <c r="A10" s="12">
         <v>2009</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16">
+      <c r="C10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15">
         <v>40391000</v>
       </c>
       <c r="F10" s="1">
@@ -4282,14 +4282,14 @@
       <c r="A11" s="12">
         <v>2010</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16">
+      <c r="C11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15">
         <v>11265000</v>
       </c>
       <c r="F11" s="1">
@@ -4304,14 +4304,14 @@
       <c r="A12" s="12">
         <v>2011</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16">
+      <c r="C12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15">
         <v>8065000</v>
       </c>
       <c r="F12" s="1">
@@ -4326,13 +4326,13 @@
       <c r="A13" s="12">
         <v>2012</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="15"/>
+      <c r="C13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="14"/>
       <c r="E13" s="9" t="s">
         <v>10</v>
       </c>
@@ -4348,13 +4348,13 @@
       <c r="A14" s="12">
         <v>2013</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="15"/>
+      <c r="C14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="14"/>
       <c r="E14" s="9" t="s">
         <v>10</v>
       </c>
@@ -4370,13 +4370,13 @@
       <c r="A15" s="12">
         <v>2014</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="15"/>
+      <c r="C15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="14"/>
       <c r="E15" s="9" t="s">
         <v>10</v>
       </c>
@@ -4392,13 +4392,13 @@
       <c r="A16" s="12">
         <v>2015</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="15"/>
+      <c r="C16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="14"/>
       <c r="E16" s="9" t="s">
         <v>10</v>
       </c>
@@ -4414,14 +4414,14 @@
       <c r="A17" s="12">
         <v>2016</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16">
+      <c r="C17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15">
         <v>5260000</v>
       </c>
       <c r="F17" s="1">
@@ -4436,14 +4436,14 @@
       <c r="A18" s="12">
         <v>2017</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16">
+      <c r="C18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15">
         <v>8060000</v>
       </c>
       <c r="F18" s="1">
@@ -4458,13 +4458,13 @@
       <c r="A19" s="12">
         <v>2018</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="15"/>
+      <c r="C19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="14"/>
       <c r="E19" s="9" t="s">
         <v>10</v>
       </c>
@@ -4480,14 +4480,14 @@
       <c r="A20" s="12">
         <v>2019</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
+      <c r="C20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -4548,7 +4548,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4563,27 +4563,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="28" t="s">
         <v>21</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -4602,14 +4602,14 @@
       <c r="A3" s="12">
         <v>2002</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15">
         <v>196510000</v>
       </c>
       <c r="F3" s="1">
@@ -4625,14 +4625,14 @@
       <c r="A4" s="12">
         <v>2003</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16">
+      <c r="D4" s="14"/>
+      <c r="E4" s="15">
         <v>4850000</v>
       </c>
       <c r="F4" s="1">
@@ -4642,21 +4642,21 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="16"/>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2004</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16">
+      <c r="D5" s="14"/>
+      <c r="E5" s="15">
         <v>2620000</v>
       </c>
       <c r="F5" s="1">
@@ -4695,14 +4695,14 @@
       <c r="A7" s="12">
         <v>2006</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16">
+      <c r="D7" s="14"/>
+      <c r="E7" s="15">
         <v>2420000</v>
       </c>
       <c r="F7" s="1">
@@ -4741,14 +4741,14 @@
       <c r="A9" s="12">
         <v>2008</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16">
+      <c r="C9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15">
         <v>2665000</v>
       </c>
       <c r="F9" s="1">
@@ -4787,14 +4787,14 @@
       <c r="A11" s="12">
         <v>2010</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16">
+      <c r="C11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15">
         <v>17065000</v>
       </c>
       <c r="F11" s="1">
@@ -4809,14 +4809,14 @@
       <c r="A12" s="12">
         <v>2011</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16">
+      <c r="C12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15">
         <v>27765000</v>
       </c>
       <c r="F12" s="1">
@@ -4831,14 +4831,14 @@
       <c r="A13" s="12">
         <v>2012</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16">
+      <c r="C13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15">
         <v>21200000</v>
       </c>
       <c r="F13" s="1">
@@ -4853,14 +4853,14 @@
       <c r="A14" s="12">
         <v>2013</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16">
+      <c r="C14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15">
         <v>10160000</v>
       </c>
       <c r="F14" s="1">
@@ -4875,14 +4875,14 @@
       <c r="A15" s="12">
         <v>2014</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16">
+      <c r="C15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15">
         <v>20160000</v>
       </c>
       <c r="F15" s="1">
@@ -4897,14 +4897,14 @@
       <c r="A16" s="12">
         <v>2015</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16">
+      <c r="C16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15">
         <v>12360000</v>
       </c>
       <c r="F16" s="1">
@@ -4943,14 +4943,14 @@
       <c r="A18" s="12">
         <v>2017</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16">
+      <c r="C18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15">
         <v>17760000</v>
       </c>
       <c r="F18" s="1">
@@ -4989,14 +4989,14 @@
       <c r="A20" s="12">
         <v>2019</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
+      <c r="C20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -5053,7 +5053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5068,79 +5068,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="23" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Collections/Евро/Austria/#EURO#Austria#Regular[2002-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Austria/#EURO#Austria#Regular[2002-present]#circulation_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -699,6 +699,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -710,12 +716,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1165,7 +1165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1184,27 +1184,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="25" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1646,27 +1646,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="25" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -2108,27 +2108,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="25" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -2570,27 +2570,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="25" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -3068,27 +3068,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -3566,27 +3566,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="24" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -4064,27 +4064,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="24" t="s">
         <v>19</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -4563,27 +4563,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="27"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="24" t="s">
         <v>21</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
@@ -5053,11 +5053,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5150,8 +5150,8 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
